--- a/natmiOut/OldD0/LR-pairs_lrc2p/Pglyrp1-Trem1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Pglyrp1-Trem1.xlsx
@@ -528,34 +528,34 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.806102273146</v>
+        <v>22.71826066666667</v>
       </c>
       <c r="H2">
-        <v>3.806102273146</v>
+        <v>68.154782</v>
       </c>
       <c r="I2">
-        <v>0.5517065073450402</v>
+        <v>0.871041851052479</v>
       </c>
       <c r="J2">
-        <v>0.5517065073450402</v>
+        <v>0.871041851052479</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.5997272158018</v>
+        <v>93.85711466666667</v>
       </c>
       <c r="N2">
-        <v>1.5997272158018</v>
+        <v>281.571344</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>6.088725392476753</v>
+        <v>2132.270396418557</v>
       </c>
       <c r="R2">
-        <v>6.088725392476753</v>
+        <v>19190.43356776701</v>
       </c>
       <c r="S2">
-        <v>0.5517065073450402</v>
+        <v>0.871041851052479</v>
       </c>
       <c r="T2">
-        <v>0.5517065073450402</v>
+        <v>0.871041851052479</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,34 +590,34 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.26292227628645</v>
+        <v>2.436847666666667</v>
       </c>
       <c r="H3">
-        <v>2.26292227628645</v>
+        <v>7.310543</v>
       </c>
       <c r="I3">
-        <v>0.3280177083658189</v>
+        <v>0.09343128567146972</v>
       </c>
       <c r="J3">
-        <v>0.3280177083658189</v>
+        <v>0.09343128567146973</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.5997272158018</v>
+        <v>93.85711466666667</v>
       </c>
       <c r="N3">
-        <v>1.5997272158018</v>
+        <v>281.571344</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>3.620058352619594</v>
+        <v>228.7154908755325</v>
       </c>
       <c r="R3">
-        <v>3.620058352619594</v>
+        <v>2058.439417879792</v>
       </c>
       <c r="S3">
-        <v>0.3280177083658189</v>
+        <v>0.09343128567146972</v>
       </c>
       <c r="T3">
-        <v>0.3280177083658189</v>
+        <v>0.09343128567146973</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,34 +652,34 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.829756274201452</v>
+        <v>0.9266013333333333</v>
       </c>
       <c r="H4">
-        <v>0.829756274201452</v>
+        <v>2.779804</v>
       </c>
       <c r="I4">
-        <v>0.1202757842891407</v>
+        <v>0.03552686327605135</v>
       </c>
       <c r="J4">
-        <v>0.1202757842891407</v>
+        <v>0.03552686327605135</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.5997272158018</v>
+        <v>93.85711466666667</v>
       </c>
       <c r="N4">
-        <v>1.5997272158018</v>
+        <v>281.571344</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.327383694322364</v>
+        <v>86.9681275929529</v>
       </c>
       <c r="R4">
-        <v>1.327383694322364</v>
+        <v>782.7131483365761</v>
       </c>
       <c r="S4">
-        <v>0.1202757842891407</v>
+        <v>0.03552686327605135</v>
       </c>
       <c r="T4">
-        <v>0.1202757842891407</v>
+        <v>0.03552686327605135</v>
       </c>
     </row>
   </sheetData>
